--- a/db/survey_sample_data.xlsx
+++ b/db/survey_sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhc48\ssl-result\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44564BA-F188-426B-B186-E9D604D8544F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BCAB5B-8018-4BBC-8825-BEB50D6224A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="0" windowWidth="13100" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13150" yWindow="0" windowWidth="12470" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문데이터" sheetId="1" r:id="rId1"/>
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -2724,12 +2724,10 @@
         <v>125</v>
       </c>
       <c r="Q2">
-        <f>SUM(JQ2:JZ2)</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R2">
-        <f>SUM(KA2:KJ2)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:X2" si="0">K2/40</f>
@@ -2757,11 +2755,11 @@
       </c>
       <c r="Y2">
         <f>Q2/10</f>
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z2">
         <f>R2/10</f>
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="AA2">
         <f>(K2-전체데이터!$J$2)/전체데이터!$J$3</f>
@@ -2789,11 +2787,11 @@
       </c>
       <c r="AG2">
         <f>(Q2-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.30867112060809593</v>
+        <v>2.3207233089185499</v>
       </c>
       <c r="AH2">
         <f>(R2-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.2334749625243093</v>
+        <v>2.8555541917440777</v>
       </c>
       <c r="AI2">
         <f>(L2-M2)/(L2+M2)*100</f>
@@ -3696,11 +3694,11 @@
       </c>
       <c r="AG3">
         <f>(Q3-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.008827564914264</v>
+        <v>0.84389938506129092</v>
       </c>
       <c r="AH3">
         <f>(R3-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.4565901794979485</v>
+        <v>-0.45712613880310604</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI32" si="17">(L3-M3)/(L3+M3)*100</f>
@@ -4603,11 +4601,11 @@
       </c>
       <c r="AG4">
         <f>(Q4-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.62487080513346149</v>
+        <v>-0.63292453879596822</v>
       </c>
       <c r="AH4">
         <f>(R4-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.38844239151318044</v>
+        <v>0.27902504576293474</v>
       </c>
       <c r="AI4">
         <f t="shared" si="17"/>
@@ -5510,11 +5508,11 @@
       </c>
       <c r="AG5">
         <f>(Q5-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.008827564914264</v>
+        <v>0.84389938506129092</v>
       </c>
       <c r="AH5">
         <f>(R5-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.2334749625243093</v>
+        <v>1.0151762303289755</v>
       </c>
       <c r="AI5">
         <f t="shared" si="17"/>
@@ -6417,11 +6415,11 @@
       </c>
       <c r="AG6">
         <f>(Q6-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-1.0916417680042401</v>
+        <v>-1.0548742313266137</v>
       </c>
       <c r="AH6">
         <f>(R6-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-3.4073893992384016E-2</v>
+        <v>-8.9050546520085663E-2</v>
       </c>
       <c r="AI6">
         <f t="shared" si="17"/>
@@ -7324,11 +7322,11 @@
       </c>
       <c r="AG7">
         <f>(Q7-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.54205660204348527</v>
+        <v>0.42194969253064546</v>
       </c>
       <c r="AH7">
         <f>(R7-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.66784832225073076</v>
+        <v>-0.64116393494461621</v>
       </c>
       <c r="AI7">
         <f t="shared" si="17"/>
@@ -8231,11 +8229,11 @@
       </c>
       <c r="AG8">
         <f>(Q8-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-1.0916417680042401</v>
+        <v>-1.0548742313266137</v>
       </c>
       <c r="AH8">
         <f>(R8-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.4565901794979485</v>
+        <v>-0.45712613880310604</v>
       </c>
       <c r="AI8">
         <f t="shared" si="17"/>
@@ -9138,11 +9136,11 @@
       </c>
       <c r="AG9">
         <f>(Q9-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.54205660204348527</v>
+        <v>0.42194969253064546</v>
       </c>
       <c r="AH9">
         <f>(R9-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-1.3016227505090774</v>
+        <v>-1.1932773233691469</v>
       </c>
       <c r="AI9">
         <f t="shared" si="17"/>
@@ -10045,11 +10043,11 @@
       </c>
       <c r="AG10">
         <f>(Q10-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-1.3250272494396296</v>
+        <v>-1.2658490775919364</v>
       </c>
       <c r="AH10">
         <f>(R10-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.24533203674516624</v>
+        <v>-0.27308834266159587</v>
       </c>
       <c r="AI10">
         <f t="shared" si="17"/>
@@ -10952,11 +10950,11 @@
       </c>
       <c r="AG11">
         <f>(Q11-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.4755985277850427</v>
+        <v>1.2658490775919364</v>
       </c>
       <c r="AH11">
         <f>(R11-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.4565901794979485</v>
+        <v>-0.45712613880310604</v>
       </c>
       <c r="AI11">
         <f t="shared" si="17"/>
@@ -11859,11 +11857,11 @@
       </c>
       <c r="AG12">
         <f>(Q12-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-1.3250272494396296</v>
+        <v>-1.2658490775919364</v>
       </c>
       <c r="AH12">
         <f>(R12-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-1.5128808932618596</v>
+        <v>-1.377315119510657</v>
       </c>
       <c r="AI12">
         <f t="shared" si="17"/>
@@ -12766,11 +12764,11 @@
       </c>
       <c r="AG13">
         <f>(Q13-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.15809984226268275</v>
+        <v>-0.21097484626532273</v>
       </c>
       <c r="AH13">
         <f>(R13-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.5997005342659627</v>
+        <v>0.46306284190444491</v>
       </c>
       <c r="AI13">
         <f t="shared" si="17"/>
@@ -13673,11 +13671,11 @@
       </c>
       <c r="AG14">
         <f>(Q14-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.62487080513346149</v>
+        <v>-0.63292453879596822</v>
       </c>
       <c r="AH14">
         <f>(R14-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.66784832225073076</v>
+        <v>-0.64116393494461621</v>
       </c>
       <c r="AI14">
         <f t="shared" si="17"/>
@@ -14580,11 +14578,11 @@
       </c>
       <c r="AG15">
         <f>(Q15-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.30867112060809593</v>
+        <v>0.21097484626532273</v>
       </c>
       <c r="AH15">
         <f>(R15-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.5997005342659627</v>
+        <v>0.46306284190444491</v>
       </c>
       <c r="AI15">
         <f t="shared" si="17"/>
@@ -15487,11 +15485,11 @@
       </c>
       <c r="AG16">
         <f>(Q16-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.3914853236980721</v>
+        <v>-0.42194969253064546</v>
       </c>
       <c r="AH16">
         <f>(R16-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.0222168197715271</v>
+        <v>0.83113843418746536</v>
       </c>
       <c r="AI16">
         <f t="shared" si="17"/>
@@ -16394,11 +16392,11 @@
       </c>
       <c r="AG17">
         <f>(Q17-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.54205660204348527</v>
+        <v>0.42194969253064546</v>
       </c>
       <c r="AH17">
         <f>(R17-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.8672493907826562</v>
+        <v>1.5672896187535061</v>
       </c>
       <c r="AI17">
         <f t="shared" si="17"/>
@@ -17301,11 +17299,11 @@
       </c>
       <c r="AG18">
         <f>(Q18-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.15809984226268275</v>
+        <v>-0.21097484626532273</v>
       </c>
       <c r="AH18">
         <f>(R18-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.66784832225073076</v>
+        <v>-0.64116393494461621</v>
       </c>
       <c r="AI18">
         <f t="shared" si="17"/>
@@ -18208,11 +18206,11 @@
       </c>
       <c r="AG19">
         <f>(Q19-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>7.5285639172706587E-2</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <f>(R19-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.17718424876039823</v>
+        <v>9.4987249621424533E-2</v>
       </c>
       <c r="AI19">
         <f t="shared" si="17"/>
@@ -19115,11 +19113,11 @@
       </c>
       <c r="AG20">
         <f>(Q20-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.708984009220432</v>
+        <v>1.4768239238572591</v>
       </c>
       <c r="AH20">
         <f>(R20-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.0222168197715271</v>
+        <v>0.83113843418746536</v>
       </c>
       <c r="AI20">
         <f t="shared" si="17"/>
@@ -20022,11 +20020,11 @@
       </c>
       <c r="AG21">
         <f>(Q21-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.3914853236980721</v>
+        <v>-0.42194969253064546</v>
       </c>
       <c r="AH21">
         <f>(R21-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.38844239151318044</v>
+        <v>0.27902504576293474</v>
       </c>
       <c r="AI21">
         <f t="shared" si="17"/>
@@ -20929,11 +20927,11 @@
       </c>
       <c r="AG22">
         <f>(Q22-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.2422130463496532</v>
+        <v>1.0548742313266137</v>
       </c>
       <c r="AH22">
         <f>(R22-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.0222168197715271</v>
+        <v>0.83113843418746536</v>
       </c>
       <c r="AI22">
         <f t="shared" si="17"/>
@@ -21836,11 +21834,11 @@
       </c>
       <c r="AG23">
         <f>(Q23-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.008827564914264</v>
+        <v>0.84389938506129092</v>
       </c>
       <c r="AH23">
         <f>(R23-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.5997005342659627</v>
+        <v>0.46306284190444491</v>
       </c>
       <c r="AI23">
         <f t="shared" si="17"/>
@@ -22743,11 +22741,11 @@
       </c>
       <c r="AG24">
         <f>(Q24-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.15809984226268275</v>
+        <v>-0.21097484626532273</v>
       </c>
       <c r="AH24">
         <f>(R24-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-2.3579134642729884</v>
+        <v>-2.1134663040766979</v>
       </c>
       <c r="AI24">
         <f t="shared" si="17"/>
@@ -23650,11 +23648,11 @@
       </c>
       <c r="AG25">
         <f>(Q25-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-1.3250272494396296</v>
+        <v>-1.2658490775919364</v>
       </c>
       <c r="AH25">
         <f>(R25-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>1.0222168197715271</v>
+        <v>0.83113843418746536</v>
       </c>
       <c r="AI25">
         <f t="shared" si="17"/>
@@ -24557,11 +24555,11 @@
       </c>
       <c r="AG26">
         <f>(Q26-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-2.4919546566165764</v>
+        <v>-2.3207233089185499</v>
       </c>
       <c r="AH26">
         <f>(R26-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.38844239151318044</v>
+        <v>0.27902504576293474</v>
       </c>
       <c r="AI26">
         <f t="shared" si="17"/>
@@ -25464,11 +25462,11 @@
       </c>
       <c r="AG27">
         <f>(Q27-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-1.0916417680042401</v>
+        <v>-1.0548742313266137</v>
       </c>
       <c r="AH27">
         <f>(R27-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-1.7241390360146418</v>
+        <v>-1.5613529156521673</v>
       </c>
       <c r="AI27">
         <f t="shared" si="17"/>
@@ -26371,11 +26369,11 @@
       </c>
       <c r="AG28">
         <f>(Q28-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.30867112060809593</v>
+        <v>0.21097484626532273</v>
       </c>
       <c r="AH28">
         <f>(R28-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-0.4565901794979485</v>
+        <v>-0.45712613880310604</v>
       </c>
       <c r="AI28">
         <f t="shared" si="17"/>
@@ -27278,11 +27276,11 @@
       </c>
       <c r="AG29">
         <f>(Q29-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>-0.3914853236980721</v>
+        <v>-0.42194969253064546</v>
       </c>
       <c r="AH29">
         <f>(R29-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-1.5128808932618596</v>
+        <v>-1.377315119510657</v>
       </c>
       <c r="AI29">
         <f t="shared" si="17"/>
@@ -28185,11 +28183,11 @@
       </c>
       <c r="AG30">
         <f>(Q30-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.54205660204348527</v>
+        <v>0.42194969253064546</v>
       </c>
       <c r="AH30">
         <f>(R30-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>-3.4073893992384016E-2</v>
+        <v>-8.9050546520085663E-2</v>
       </c>
       <c r="AI30">
         <f t="shared" si="17"/>
@@ -29092,11 +29090,11 @@
       </c>
       <c r="AG31">
         <f>(Q31-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>1.4755985277850427</v>
+        <v>1.2658490775919364</v>
       </c>
       <c r="AH31">
         <f>(R31-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.17718424876039823</v>
+        <v>9.4987249621424533E-2</v>
       </c>
       <c r="AI31">
         <f t="shared" si="17"/>
@@ -29999,11 +29997,11 @@
       </c>
       <c r="AG32">
         <f>(Q32-전체데이터!$P$2)/전체데이터!$P$3</f>
-        <v>0.54205660204348527</v>
+        <v>0.42194969253064546</v>
       </c>
       <c r="AH32">
         <f>(R32-전체데이터!$Q$2)/전체데이터!$Q$3</f>
-        <v>0.81095867701874491</v>
+        <v>0.64710063804595508</v>
       </c>
       <c r="AI32">
         <f t="shared" si="17"/>
@@ -30912,11 +30910,11 @@
       </c>
       <c r="P2">
         <f>AVERAGE(설문데이터!Q2:Q32)</f>
-        <v>29.677419354838708</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>AVERAGE(설문데이터!R2:R32)</f>
-        <v>28.161290322580644</v>
+        <v>28.483870967741936</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -30973,11 +30971,11 @@
       </c>
       <c r="P3">
         <f>STDEV(설문데이터!Q2:Q32)</f>
-        <v>4.2847566774492822</v>
+        <v>4.7399015460942504</v>
       </c>
       <c r="Q3">
         <f>STDEV(설문데이터!R2:R32)</f>
-        <v>4.7335453534220289</v>
+        <v>5.4336664585522465</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
